--- a/data/vin_prefixes.xlsx
+++ b/data/vin_prefixes.xlsx
@@ -1,138 +1,469 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nezno\Biblioteca\BETERANO\Code\100 Beterano Data\beterano-data\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{855EBB50-6890-4490-B2D0-369EF03C71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{314B3F51-3B11-4870-85EB-9F7748CDDA1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vin_prefixes_demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Serie/Generacion</t>
-  </si>
-  <si>
-    <t>Designacion</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>VIN Length</t>
-  </si>
-  <si>
-    <t>VIN Year</t>
-  </si>
-  <si>
-    <t>Chassis Format</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>serie_generacion</t>
+  </si>
+  <si>
+    <t>designacion</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>vin_length</t>
+  </si>
+  <si>
+    <t>vin_year</t>
+  </si>
+  <si>
+    <t>chassis_format</t>
   </si>
   <si>
     <t>Land Rover</t>
   </si>
   <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Serie III</t>
+  </si>
+  <si>
+    <t>88"</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>[1981, 1982, 1983, 1984, 1985]</t>
+  </si>
+  <si>
+    <t>24126782C</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Land Cruiser</t>
+  </si>
+  <si>
+    <t>40 Series</t>
+  </si>
+  <si>
+    <t>BJ40</t>
+  </si>
+  <si>
+    <t>JT1</t>
+  </si>
+  <si>
+    <t>FJ40-123456</t>
+  </si>
+  <si>
     <t>Mercedes-Benz</t>
   </si>
   <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Range Rover Classic</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Land Cruiser</t>
-  </si>
-  <si>
-    <t>Serie I</t>
-  </si>
-  <si>
-    <t>309 D</t>
+    <t>G-Klasse</t>
+  </si>
+  <si>
+    <t>W460</t>
+  </si>
+  <si>
+    <t>GD 300</t>
+  </si>
+  <si>
+    <t>WDB</t>
+  </si>
+  <si>
+    <t>[1981, 1982, 1983, 1984, 1985, 1986]</t>
+  </si>
+  <si>
+    <t>460345-12-123456</t>
+  </si>
+  <si>
+    <t>60 Series</t>
   </si>
   <si>
     <t>HJ60</t>
   </si>
   <si>
-    <t>3.5 V8 Automático</t>
-  </si>
-  <si>
-    <t>Furgón Larga</t>
-  </si>
-  <si>
-    <t>4.0 Diesel</t>
-  </si>
-  <si>
-    <t>SALHV,SALLH</t>
-  </si>
-  <si>
-    <t>WDB309</t>
-  </si>
-  <si>
-    <t>JT1V0</t>
-  </si>
-  <si>
-    <t>1981-1995</t>
-  </si>
-  <si>
-    <t>1977-1996</t>
-  </si>
-  <si>
-    <t>1981-1988</t>
-  </si>
-  <si>
-    <t>pre-1981: 358xxxxC</t>
+    <t>[1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988, 1989]</t>
+  </si>
+  <si>
+    <t>HJ60-012345</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Patrol</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>JN1</t>
+  </si>
+  <si>
+    <t>[1981, 1982, 1983, 1984, 1985, 1986, 1987, 1988]</t>
+  </si>
+  <si>
+    <t>Transporter T1</t>
+  </si>
+  <si>
+    <t>Bremer</t>
   </si>
   <si>
     <t>309350-12-012345</t>
-  </si>
-  <si>
-    <t>HJ60-123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -141,40 +472,219 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,44 +694,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -248,14 +758,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -282,6 +810,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -293,282 +839,349 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC0EBCA-4A55-4AEF-9E94-D0521FC50E92}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>160123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>310</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>